--- a/Outputs/1. Budget/Output Files/1500000/Output_22_30.xlsx
+++ b/Outputs/1. Budget/Output Files/1500000/Output_22_30.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2262377.84093742</v>
+        <v>2261833.685885514</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12463925.44488782</v>
+        <v>12464781.8679769</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9548792.269784356</v>
+        <v>9548623.248201588</v>
       </c>
     </row>
     <row r="11">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>182.5570120086805</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>11.36529914368126</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>153.8072380324135</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>60.09988737406896</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>34.92041296071525</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -834,13 +834,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845744</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>90.73780352948904</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>87.91534644508718</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950441</v>
+        <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885166</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>88.31160113061399</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>59.51960957891333</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>96.47037835246134</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833734</v>
+        <v>33.19510370079033</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>169.1057145573875</v>
+        <v>210.1779408230891</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>169.7208422166749</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>89.67868986072659</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>85.9593232420341</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8302881234605</v>
+        <v>97.56214753809401</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787256</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734614</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>92.83360621149697</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>30.30767005611149</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155177</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088543</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8191502244401</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685651</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305865</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>156.5831467345228</v>
       </c>
       <c r="T10" t="n">
-        <v>208.5528602734969</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2811815126423244</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>160.9888698962426</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>13.37642554686322</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2013,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.8209744842155</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>94.64226186542889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>116.287325111933</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>157.0680868942514</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>33.55293486399881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>19.91555826189057</v>
+        <v>13.37642554686322</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>91.89996056624759</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>73.23997380652447</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>80.10107535865899</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>126.926382450742</v>
+        <v>81.11398998229679</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.17988875728673</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>578.242639237266</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="C2" t="n">
-        <v>578.242639237266</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="D2" t="n">
-        <v>578.242639237266</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="E2" t="n">
-        <v>388.822854220781</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897906</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201479</v>
+        <v>738.6222485201482</v>
       </c>
       <c r="S2" t="n">
-        <v>578.242639237266</v>
+        <v>738.6222485201482</v>
       </c>
       <c r="T2" t="n">
-        <v>578.242639237266</v>
+        <v>738.6222485201482</v>
       </c>
       <c r="U2" t="n">
-        <v>578.242639237266</v>
+        <v>549.2024635036631</v>
       </c>
       <c r="V2" t="n">
-        <v>578.242639237266</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="W2" t="n">
-        <v>578.242639237266</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="X2" t="n">
-        <v>578.242639237266</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="Y2" t="n">
-        <v>578.242639237266</v>
+        <v>393.8416170062758</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>335.9896342275476</v>
+        <v>409.3994882033921</v>
       </c>
       <c r="C3" t="n">
-        <v>161.5366049464207</v>
+        <v>234.9464589222651</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464207</v>
+        <v>234.9464589222651</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464207</v>
+        <v>75.70900391680962</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330561</v>
+        <v>75.70900391680962</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330561</v>
+        <v>75.70900391680962</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140247</v>
@@ -4427,34 +4427,34 @@
         <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S3" t="n">
-        <v>714.8292042605176</v>
+        <v>598.8192732198772</v>
       </c>
       <c r="T3" t="n">
-        <v>525.4094192440326</v>
+        <v>409.3994882033921</v>
       </c>
       <c r="U3" t="n">
-        <v>525.4094192440326</v>
+        <v>409.3994882033921</v>
       </c>
       <c r="V3" t="n">
-        <v>525.4094192440326</v>
+        <v>409.3994882033921</v>
       </c>
       <c r="W3" t="n">
-        <v>525.4094192440326</v>
+        <v>409.3994882033921</v>
       </c>
       <c r="X3" t="n">
-        <v>525.4094192440326</v>
+        <v>409.3994882033921</v>
       </c>
       <c r="Y3" t="n">
-        <v>335.9896342275476</v>
+        <v>409.3994882033921</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>334.3383230128123</v>
+        <v>465.6513659686595</v>
       </c>
       <c r="C4" t="n">
-        <v>334.3383230128123</v>
+        <v>465.6513659686595</v>
       </c>
       <c r="D4" t="n">
-        <v>334.3383230128123</v>
+        <v>465.6513659686595</v>
       </c>
       <c r="E4" t="n">
-        <v>334.3383230128123</v>
+        <v>465.6513659686595</v>
       </c>
       <c r="F4" t="n">
-        <v>334.3383230128123</v>
+        <v>465.6513659686595</v>
       </c>
       <c r="G4" t="n">
-        <v>165.6494995757273</v>
+        <v>296.9625425315745</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>100.3335179349387</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830977</v>
+        <v>285.9838492295957</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777546</v>
+        <v>471.6341805242527</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143047</v>
+        <v>634.3723839608029</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846282</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768601</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="S4" t="n">
-        <v>612.5614882768601</v>
+        <v>655.0711509851446</v>
       </c>
       <c r="T4" t="n">
-        <v>612.5614882768601</v>
+        <v>465.6513659686595</v>
       </c>
       <c r="U4" t="n">
-        <v>612.5614882768601</v>
+        <v>465.6513659686595</v>
       </c>
       <c r="V4" t="n">
-        <v>612.5614882768601</v>
+        <v>465.6513659686595</v>
       </c>
       <c r="W4" t="n">
-        <v>612.5614882768601</v>
+        <v>465.6513659686595</v>
       </c>
       <c r="X4" t="n">
-        <v>523.7581080292973</v>
+        <v>465.6513659686595</v>
       </c>
       <c r="Y4" t="n">
-        <v>334.3383230128123</v>
+        <v>465.6513659686595</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.339735371449</v>
+        <v>861.9600062922736</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.339735371449</v>
+        <v>861.9600062922736</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.074036764699</v>
+        <v>861.9600062922736</v>
       </c>
       <c r="E5" t="n">
-        <v>1268.074036764699</v>
+        <v>861.9600062922736</v>
       </c>
       <c r="F5" t="n">
-        <v>857.0881319750911</v>
+        <v>450.974101502666</v>
       </c>
       <c r="G5" t="n">
-        <v>440.6358706669656</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038228</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="I5" t="n">
-        <v>33.72921106255854</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="J5" t="n">
-        <v>107.8290791267618</v>
+        <v>111.6705539017212</v>
       </c>
       <c r="K5" t="n">
-        <v>269.6240911917569</v>
+        <v>277.9807166746964</v>
       </c>
       <c r="L5" t="n">
-        <v>507.2468724099484</v>
+        <v>521.2049416030741</v>
       </c>
       <c r="M5" t="n">
-        <v>803.3174389675509</v>
+        <v>823.5081935709148</v>
       </c>
       <c r="N5" t="n">
-        <v>1108.792545203136</v>
+        <v>1135.316836582748</v>
       </c>
       <c r="O5" t="n">
-        <v>1383.90876451977</v>
+        <v>1416.413635079235</v>
       </c>
       <c r="P5" t="n">
-        <v>1584.213091808873</v>
+        <v>1621.822248332752</v>
       </c>
       <c r="Q5" t="n">
-        <v>1686.460553127927</v>
+        <v>1727.902815837878</v>
       </c>
       <c r="R5" t="n">
-        <v>1686.460553127927</v>
+        <v>1727.902815837878</v>
       </c>
       <c r="S5" t="n">
-        <v>1686.460553127927</v>
+        <v>1638.699178332207</v>
       </c>
       <c r="T5" t="n">
-        <v>1686.460553127927</v>
+        <v>1638.699178332207</v>
       </c>
       <c r="U5" t="n">
-        <v>1686.460553127927</v>
+        <v>1638.699178332207</v>
       </c>
       <c r="V5" t="n">
-        <v>1686.460553127927</v>
+        <v>1638.699178332207</v>
       </c>
       <c r="W5" t="n">
-        <v>1626.339735371449</v>
+        <v>1638.699178332207</v>
       </c>
       <c r="X5" t="n">
-        <v>1626.339735371449</v>
+        <v>1638.699178332207</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.339735371449</v>
+        <v>1248.559846356395</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.8195640491023</v>
+        <v>931.7747295209705</v>
       </c>
       <c r="C6" t="n">
-        <v>757.3665347679753</v>
+        <v>757.3217002398435</v>
       </c>
       <c r="D6" t="n">
-        <v>608.432125106724</v>
+        <v>608.3872905785922</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1946701012685</v>
+        <v>449.1498355731367</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6601121281534</v>
+        <v>302.6152776000216</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5587479084195</v>
+        <v>165.5332907139815</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067707</v>
+        <v>68.08846409533365</v>
       </c>
       <c r="I6" t="n">
-        <v>33.72921106255854</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="J6" t="n">
-        <v>59.04473788968937</v>
+        <v>186.4980096348797</v>
       </c>
       <c r="K6" t="n">
-        <v>243.2077001209171</v>
+        <v>310.9878489676102</v>
       </c>
       <c r="L6" t="n">
-        <v>452.7985733737478</v>
+        <v>524.7023421060012</v>
       </c>
       <c r="M6" t="n">
-        <v>716.738104869235</v>
+        <v>793.4539435093527</v>
       </c>
       <c r="N6" t="n">
-        <v>1002.071975302568</v>
+        <v>1083.72724502225</v>
       </c>
       <c r="O6" t="n">
-        <v>1240.876927054026</v>
+        <v>1327.05081121532</v>
       </c>
       <c r="P6" t="n">
-        <v>1413.205888007736</v>
+        <v>1503.006358626509</v>
       </c>
       <c r="Q6" t="n">
-        <v>1686.460553127927</v>
+        <v>1726.723662962411</v>
       </c>
       <c r="R6" t="n">
-        <v>1686.460553127927</v>
+        <v>1727.902815837878</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.460553127927</v>
+        <v>1727.902815837878</v>
       </c>
       <c r="T6" t="n">
-        <v>1686.460553127927</v>
+        <v>1727.902815837878</v>
       </c>
       <c r="U6" t="n">
-        <v>1686.460553127927</v>
+        <v>1727.902815837878</v>
       </c>
       <c r="V6" t="n">
-        <v>1686.460553127927</v>
+        <v>1727.902815837878</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.646700039657</v>
+        <v>1515.601865511525</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.795199834124</v>
+        <v>1307.750365305992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1100.03490106917</v>
+        <v>1099.990066541038</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.7820334028012</v>
+        <v>816.7194468385378</v>
       </c>
       <c r="C7" t="n">
-        <v>183.8458504748943</v>
+        <v>647.7832639106309</v>
       </c>
       <c r="D7" t="n">
-        <v>33.72921106255854</v>
+        <v>497.6666244982952</v>
       </c>
       <c r="E7" t="n">
-        <v>33.72921106255854</v>
+        <v>349.753530915902</v>
       </c>
       <c r="F7" t="n">
-        <v>33.72921106255854</v>
+        <v>202.8635834179917</v>
       </c>
       <c r="G7" t="n">
-        <v>33.72921106255854</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="H7" t="n">
-        <v>33.72921106255854</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="I7" t="n">
-        <v>33.72921106255854</v>
+        <v>34.55805631675756</v>
       </c>
       <c r="J7" t="n">
-        <v>35.96388306992288</v>
+        <v>37.9184154251434</v>
       </c>
       <c r="K7" t="n">
-        <v>169.472972355726</v>
+        <v>173.2773544153384</v>
       </c>
       <c r="L7" t="n">
-        <v>395.84507567387</v>
+        <v>402.0166284741415</v>
       </c>
       <c r="M7" t="n">
-        <v>644.9118420064103</v>
+        <v>653.5792444508779</v>
       </c>
       <c r="N7" t="n">
-        <v>893.4909737490111</v>
+        <v>904.5948801116342</v>
       </c>
       <c r="O7" t="n">
-        <v>1107.077740097166</v>
+        <v>1120.432152187793</v>
       </c>
       <c r="P7" t="n">
-        <v>1266.31743473321</v>
+        <v>1281.597543261022</v>
       </c>
       <c r="Q7" t="n">
-        <v>1293.13166510086</v>
+        <v>1309.745026025163</v>
       </c>
       <c r="R7" t="n">
-        <v>1175.471604442305</v>
+        <v>1309.745026025163</v>
       </c>
       <c r="S7" t="n">
-        <v>972.9993576026061</v>
+        <v>1309.745026025163</v>
       </c>
       <c r="T7" t="n">
-        <v>801.5641634443487</v>
+        <v>1309.745026025163</v>
       </c>
       <c r="U7" t="n">
-        <v>801.5641634443487</v>
+        <v>1309.745026025163</v>
       </c>
       <c r="V7" t="n">
-        <v>801.5641634443487</v>
+        <v>1309.745026025163</v>
       </c>
       <c r="W7" t="n">
-        <v>801.5641634443487</v>
+        <v>1309.745026025163</v>
       </c>
       <c r="X7" t="n">
-        <v>573.5746125463313</v>
+        <v>1219.160490812308</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.7820334028012</v>
+        <v>998.3679116687775</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2086.573660650147</v>
+        <v>1296.956676308548</v>
       </c>
       <c r="C8" t="n">
-        <v>1999.746061415769</v>
+        <v>1296.956676308548</v>
       </c>
       <c r="D8" t="n">
-        <v>1641.480362809019</v>
+        <v>938.6909777017975</v>
       </c>
       <c r="E8" t="n">
-        <v>1255.692110210775</v>
+        <v>552.9027251035532</v>
       </c>
       <c r="F8" t="n">
-        <v>844.7062054211671</v>
+        <v>141.9168203139456</v>
       </c>
       <c r="G8" t="n">
-        <v>428.7160153974696</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7336115759745</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761833</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>156.892704587271</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505159003</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985283</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556944</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.25982741549</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975111</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.10904063109</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208128</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380916</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2086.573660650147</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2086.573660650147</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U8" t="n">
-        <v>2086.573660650147</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V8" t="n">
-        <v>2086.573660650147</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="W8" t="n">
-        <v>2086.573660650147</v>
+        <v>1683.55651637267</v>
       </c>
       <c r="X8" t="n">
-        <v>2086.573660650147</v>
+        <v>1683.55651637267</v>
       </c>
       <c r="Y8" t="n">
-        <v>2086.573660650147</v>
+        <v>1683.55651637267</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>583.2797313720816</v>
+        <v>701.68199108318</v>
       </c>
       <c r="C9" t="n">
-        <v>408.8267020909547</v>
+        <v>701.68199108318</v>
       </c>
       <c r="D9" t="n">
-        <v>259.8922924297034</v>
+        <v>607.9106716776275</v>
       </c>
       <c r="E9" t="n">
-        <v>100.6548374242479</v>
+        <v>448.6732166721721</v>
       </c>
       <c r="F9" t="n">
-        <v>70.04102928676153</v>
+        <v>302.138658699057</v>
       </c>
       <c r="G9" t="n">
-        <v>70.04102928676153</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676153</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761833</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424095</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>447.5982561718702</v>
+        <v>508.4654164929048</v>
       </c>
       <c r="L9" t="n">
-        <v>709.8012320015469</v>
+        <v>766.0165520528924</v>
       </c>
       <c r="M9" t="n">
-        <v>1035.136605651653</v>
+        <v>1085.923447521402</v>
       </c>
       <c r="N9" t="n">
-        <v>1383.491283492407</v>
+        <v>1428.705971516033</v>
       </c>
       <c r="O9" t="n">
-        <v>1679.947961907559</v>
+        <v>1720.065217770599</v>
       </c>
       <c r="P9" t="n">
-        <v>1898.547516174888</v>
+        <v>1934.5736333315</v>
       </c>
       <c r="Q9" t="n">
-        <v>2202.732847559023</v>
+        <v>2154.745546059887</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380916</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472983</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064439</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="U9" t="n">
-        <v>1656.496332322581</v>
+        <v>1606.683255013611</v>
       </c>
       <c r="V9" t="n">
-        <v>1421.344224090838</v>
+        <v>1371.531146781868</v>
       </c>
       <c r="W9" t="n">
-        <v>1167.106867362636</v>
+        <v>1117.293790053667</v>
       </c>
       <c r="X9" t="n">
-        <v>959.2553671571036</v>
+        <v>909.4422898481339</v>
       </c>
       <c r="Y9" t="n">
-        <v>751.4950683921497</v>
+        <v>701.68199108318</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.0611584150578</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>154.0611584150578</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0611584150578</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0611584150578</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>154.0611584150578</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>154.0611584150578</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0611584150578</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761833</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692036</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274032</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918439</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921715</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629319</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546131</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.32336065924</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155968</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R10" t="n">
-        <v>1396.807701620022</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S10" t="n">
-        <v>1197.947592890927</v>
+        <v>1328.190584012311</v>
       </c>
       <c r="T10" t="n">
-        <v>987.2881380692129</v>
+        <v>1104.586726704934</v>
       </c>
       <c r="U10" t="n">
-        <v>698.1628166579053</v>
+        <v>815.4604056789578</v>
       </c>
       <c r="V10" t="n">
-        <v>443.4783284520184</v>
+        <v>560.775917473071</v>
       </c>
       <c r="W10" t="n">
-        <v>154.0611584150578</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="X10" t="n">
-        <v>154.0611584150578</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>154.0611584150578</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5050,22 +5050,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.679061850319</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2263.824227505223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.222762528164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.222762528164</v>
+        <v>1814.846060413294</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.538274322277</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5269,34 +5269,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5366,16 +5366,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998291</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998291</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5518,16 +5518,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5837,16 +5837,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6071,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>641.8461362382112</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>472.9099533103043</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>322.7933138979686</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2105.453616008648</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1816.378389352846</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V25" t="n">
-        <v>1561.693901146959</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1272.276731109998</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1044.287180211981</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>823.4946010684509</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>2381.235169913446</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M30" t="n">
-        <v>2978.613657539998</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>3606.211621094605</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>4158.121351333892</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>4581.74450082896</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E31" t="n">
-        <v>113.9333885650331</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F31" t="n">
-        <v>113.9333885650331</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6782,13 +6782,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
         <v>1344.266747951538</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647277</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368208</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D34" t="n">
-        <v>481.447947124485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>333.5348535420919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>186.6449060441816</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7025,16 +7025,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7259,22 +7259,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277355</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7493,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7630,37 +7630,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7730,19 +7730,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,10 +8139,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>74.03418926528973</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457085</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.5660510377764</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>26.19461818159743</v>
+        <v>23.94240680425943</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>63.37360602116058</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>157.5907849180415</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>196.4478217248097</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>127.9776909938866</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.09406519747934</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>125.1956044930016</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393024</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9182872993607</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>149.7636788678793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>60.33736343303687</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>133.693886234629</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>145.6085800303783</v>
+        <v>152.1477127454056</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>73.62417772602126</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>144.1654765207638</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>19.50758019582713</v>
+        <v>65.31997266427238</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>66.34424953498211</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>843281.9100844633</v>
+        <v>843421.893476377</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>845238.4004106821</v>
+        <v>844910.0039391703</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778326</v>
+        <v>270592.3620253102</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296911</v>
+        <v>115410.0540231946</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745746</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153561</v>
+        <v>62913.63765881929</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484308</v>
+        <v>27875.2536219753</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167274</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278152.0484090864</v>
+        <v>278215.8274662499</v>
       </c>
       <c r="C4" t="n">
-        <v>209229.1171943441</v>
+        <v>206275.6443517567</v>
       </c>
       <c r="D4" t="n">
-        <v>170358.5479229508</v>
+        <v>173896.8884867641</v>
       </c>
       <c r="E4" t="n">
-        <v>14201.79166891858</v>
+        <v>14257.49849731383</v>
       </c>
       <c r="F4" t="n">
-        <v>14201.79166891858</v>
+        <v>14257.49849731383</v>
       </c>
       <c r="G4" t="n">
-        <v>14201.79166891858</v>
+        <v>14257.49849731383</v>
       </c>
       <c r="H4" t="n">
-        <v>14201.79166891858</v>
+        <v>14257.49849731383</v>
       </c>
       <c r="I4" t="n">
-        <v>14201.79166891858</v>
+        <v>14257.49849731383</v>
       </c>
       <c r="J4" t="n">
-        <v>14201.79166891858</v>
+        <v>14257.49849731383</v>
       </c>
       <c r="K4" t="n">
-        <v>14201.79166891858</v>
+        <v>14257.49849731383</v>
       </c>
       <c r="L4" t="n">
-        <v>14201.79166891858</v>
+        <v>14257.49849731383</v>
       </c>
       <c r="M4" t="n">
-        <v>14201.79166891858</v>
+        <v>14257.49849731383</v>
       </c>
       <c r="N4" t="n">
-        <v>14201.79166891858</v>
+        <v>14257.49849731383</v>
       </c>
       <c r="O4" t="n">
-        <v>14201.79166891858</v>
+        <v>14257.49849731383</v>
       </c>
       <c r="P4" t="n">
-        <v>14201.79166891858</v>
+        <v>14257.49849731383</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>75611.38525919238</v>
+        <v>76435.73471936805</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969312</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-310713.4239433332</v>
+        <v>-310777.2030004968</v>
       </c>
       <c r="C6" t="n">
-        <v>71817.01926684321</v>
+        <v>62477.58630177751</v>
       </c>
       <c r="D6" t="n">
-        <v>220541.9472458778</v>
+        <v>241275.3030323816</v>
       </c>
       <c r="E6" t="n">
-        <v>-99643.16389989581</v>
+        <v>-111463.2861279814</v>
       </c>
       <c r="F6" t="n">
-        <v>490035.6282746785</v>
+        <v>489979.9214462835</v>
       </c>
       <c r="G6" t="n">
-        <v>490035.628274679</v>
+        <v>489979.9214462834</v>
       </c>
       <c r="H6" t="n">
-        <v>490035.6282746785</v>
+        <v>489979.9214462835</v>
       </c>
       <c r="I6" t="n">
-        <v>490035.6282746784</v>
+        <v>489979.9214462835</v>
       </c>
       <c r="J6" t="n">
-        <v>440970.683546134</v>
+        <v>440914.976717739</v>
       </c>
       <c r="K6" t="n">
-        <v>429788.4686831429</v>
+        <v>427066.283787464</v>
       </c>
       <c r="L6" t="n">
-        <v>456417.7549098356</v>
+        <v>462104.667824308</v>
       </c>
       <c r="M6" t="n">
-        <v>335961.7772579513</v>
+        <v>332833.5408946853</v>
       </c>
       <c r="N6" t="n">
-        <v>490035.6282746785</v>
+        <v>489979.9214462834</v>
       </c>
       <c r="O6" t="n">
-        <v>490035.6282746785</v>
+        <v>489979.9214462835</v>
       </c>
       <c r="P6" t="n">
-        <v>490035.6282746787</v>
+        <v>489979.9214462835</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>749.98095649761</v>
+        <v>758.8996292950602</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790458</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>421.6151382819818</v>
+        <v>431.9757039594695</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952291</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847052</v>
+        <v>210.4296883821553</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814358</v>
+        <v>94.81103524262392</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626282</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156617</v>
+        <v>244.4501167931492</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132473</v>
+        <v>110.1392527666938</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044195</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156617</v>
+        <v>244.4501167931494</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132473</v>
+        <v>110.1392527666938</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044195</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156617</v>
+        <v>244.4501167931492</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132473</v>
+        <v>110.1392527666938</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044195</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>224.3190337330309</v>
+        <v>219.3504585753912</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637379</v>
+        <v>225.5722460637378</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871012</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>173.9450204377214</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27466,16 +27466,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>40.74186997667073</v>
       </c>
       <c r="I3" t="n">
         <v>48.77881175550655</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714232</v>
       </c>
       <c r="S3" t="n">
-        <v>114.8498317302343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681112</v>
+        <v>7.884010625681025</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098424</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553079</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>116.0424522660072</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632377989</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>137.79430894395</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577467</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760063</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>51.18716070664165</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>209.7407415149289</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>289.7213591384997</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>141.3629830843607</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>82.5892686035321</v>
+        <v>41.51704233783047</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166225</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>52.44620541564143</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>136.0309655283106</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>279.3135685289735</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>314.3085873055328</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>54.61145935314178</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>114.7615423372724</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719213</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421427</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>40.60454402509308</v>
       </c>
       <c r="T10" t="n">
-        <v>12.73743834324117</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31041,16 +31041,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
         <v>280.472093452864</v>
@@ -31059,28 +31059,28 @@
         <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
         <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061602</v>
@@ -31126,43 +31126,43 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31217,7 +31217,7 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.014998820090892</v>
+        <v>3.050852781085667</v>
       </c>
       <c r="H5" t="n">
-        <v>30.87735666625586</v>
+        <v>31.24454604429359</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115543</v>
+        <v>117.6180018428053</v>
       </c>
       <c r="J5" t="n">
-        <v>255.8942561066896</v>
+        <v>258.9373162286698</v>
       </c>
       <c r="K5" t="n">
-        <v>383.5191561611372</v>
+        <v>388.0799144520262</v>
       </c>
       <c r="L5" t="n">
-        <v>475.7894263014939</v>
+        <v>481.4474502511768</v>
       </c>
       <c r="M5" t="n">
-        <v>529.4074115682853</v>
+        <v>535.703053396809</v>
       </c>
       <c r="N5" t="n">
-        <v>537.9737769658685</v>
+        <v>544.3712888610687</v>
       </c>
       <c r="O5" t="n">
-        <v>507.9933824485897</v>
+        <v>514.0343715191481</v>
       </c>
       <c r="P5" t="n">
-        <v>433.5605990775957</v>
+        <v>438.7164434860956</v>
       </c>
       <c r="Q5" t="n">
-        <v>325.5859538330906</v>
+        <v>329.4577782634651</v>
       </c>
       <c r="R5" t="n">
-        <v>189.3909196325347</v>
+        <v>191.6431310098727</v>
       </c>
       <c r="S5" t="n">
-        <v>68.70428561282128</v>
+        <v>69.5213077489897</v>
       </c>
       <c r="T5" t="n">
-        <v>13.19815733494789</v>
+        <v>13.35510804920251</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2411999056072713</v>
+        <v>0.2440682224868533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.613166585674105</v>
+        <v>1.632350146030884</v>
       </c>
       <c r="H6" t="n">
-        <v>15.57979307743149</v>
+        <v>15.76506588403512</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307774</v>
+        <v>56.20152915062475</v>
       </c>
       <c r="J6" t="n">
-        <v>152.4088658859908</v>
+        <v>154.2212916475933</v>
       </c>
       <c r="K6" t="n">
-        <v>260.4910271261558</v>
+        <v>263.5887514316626</v>
       </c>
       <c r="L6" t="n">
-        <v>350.2623325605112</v>
+        <v>354.4276051721883</v>
       </c>
       <c r="M6" t="n">
-        <v>408.7396212911974</v>
+        <v>413.6002979658078</v>
       </c>
       <c r="N6" t="n">
-        <v>419.5577428240734</v>
+        <v>424.5470671468659</v>
       </c>
       <c r="O6" t="n">
-        <v>383.8133674257156</v>
+        <v>388.3776244374446</v>
       </c>
       <c r="P6" t="n">
-        <v>308.0440649433297</v>
+        <v>311.7072835872485</v>
       </c>
       <c r="Q6" t="n">
-        <v>205.919299602891</v>
+        <v>208.3680642547494</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>101.3488976632158</v>
       </c>
       <c r="S6" t="n">
-        <v>29.96386179969223</v>
+        <v>30.32018801947715</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993429</v>
+        <v>6.579516597378869</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1061293806364543</v>
+        <v>0.1073914569757161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.352424675651428</v>
+        <v>1.368507528236994</v>
       </c>
       <c r="H7" t="n">
-        <v>12.02428484351907</v>
+        <v>12.16727602377983</v>
       </c>
       <c r="I7" t="n">
-        <v>40.67109842777204</v>
+        <v>41.15475366734524</v>
       </c>
       <c r="J7" t="n">
-        <v>95.61642456855594</v>
+        <v>96.75348224635545</v>
       </c>
       <c r="K7" t="n">
-        <v>157.1271577711386</v>
+        <v>158.9956928260798</v>
       </c>
       <c r="L7" t="n">
-        <v>201.0686649600314</v>
+        <v>203.4597465162527</v>
       </c>
       <c r="M7" t="n">
-        <v>211.9987152932506</v>
+        <v>214.5197755399134</v>
       </c>
       <c r="N7" t="n">
-        <v>206.9578596840045</v>
+        <v>209.4189747528485</v>
       </c>
       <c r="O7" t="n">
-        <v>191.15908051844</v>
+        <v>193.4323186275344</v>
       </c>
       <c r="P7" t="n">
-        <v>163.5696171351508</v>
+        <v>165.5147650514996</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.2471244311391</v>
+        <v>114.5938440235541</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519964</v>
+        <v>61.53307486054699</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567079</v>
+        <v>23.84935392391196</v>
       </c>
       <c r="T7" t="n">
-        <v>5.77854179596519</v>
+        <v>5.84725943883079</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07376861867189614</v>
+        <v>0.07464586517656338</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674553</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248702</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725334</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566384</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062223</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766825</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458748</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799702</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415063</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845407</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451956</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997769</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278395</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205536</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339642</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328513</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930433</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.9680049198633</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743663</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693767</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169214</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675799</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436909</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627801</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873896</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391976</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070809</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498355</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363611</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347707</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765492</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529684</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869318</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412203</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011181</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552806</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243489</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057686</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231444</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463282</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130359</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658293</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>27.1450903951677</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543465</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629967</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32086,31 +32086,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32557,7 +32557,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32809,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>139.5228722182831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33049,7 +33049,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33268,7 +33268,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270658</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L33" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33745,7 +33745,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33757,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33979,7 +33979,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33991,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,10 +34228,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34465,7 +34465,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
         <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
         <v>117.5966053606292</v>
@@ -34789,16 +34789,16 @@
         <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>86.19340501175058</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732831</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068258</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>74.84835158000331</v>
+        <v>77.89141170198354</v>
       </c>
       <c r="K5" t="n">
-        <v>163.4293051161566</v>
+        <v>167.9900634070457</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0230113315067</v>
+        <v>245.6810352811896</v>
       </c>
       <c r="M5" t="n">
-        <v>299.0611783410126</v>
+        <v>305.3568201695363</v>
       </c>
       <c r="N5" t="n">
-        <v>308.5607133692776</v>
+        <v>314.9582252644778</v>
       </c>
       <c r="O5" t="n">
-        <v>277.895171026903</v>
+        <v>283.9361600974613</v>
       </c>
       <c r="P5" t="n">
-        <v>202.3276033223262</v>
+        <v>207.4834477308261</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.2802639586411</v>
+        <v>107.1520883890156</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.57123921932407</v>
+        <v>153.4747003213355</v>
       </c>
       <c r="K6" t="n">
-        <v>186.0231941729573</v>
+        <v>125.7473124573036</v>
       </c>
       <c r="L6" t="n">
-        <v>211.707952780637</v>
+        <v>215.8732253923141</v>
       </c>
       <c r="M6" t="n">
-        <v>266.605587369179</v>
+        <v>271.4662640437895</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407402</v>
+        <v>293.2053550635326</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812712</v>
+        <v>245.7813799930002</v>
       </c>
       <c r="P6" t="n">
-        <v>174.0696575289995</v>
+        <v>177.7328761729182</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.0148132527186</v>
+        <v>225.9770750867693</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.19106351057269</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.257244451883167</v>
+        <v>3.394302129682671</v>
       </c>
       <c r="K7" t="n">
-        <v>134.8576659452557</v>
+        <v>136.7262010001969</v>
       </c>
       <c r="L7" t="n">
-        <v>228.6586902203475</v>
+        <v>231.0497717765689</v>
       </c>
       <c r="M7" t="n">
-        <v>251.5825922550912</v>
+        <v>254.103652501754</v>
       </c>
       <c r="N7" t="n">
-        <v>251.0900320632331</v>
+        <v>253.5511471320771</v>
       </c>
       <c r="O7" t="n">
-        <v>215.7442084324797</v>
+        <v>218.0174465415741</v>
       </c>
       <c r="P7" t="n">
-        <v>160.8481764000443</v>
+        <v>162.7933243163931</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.08508117944473</v>
+        <v>28.4318007718597</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299521</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612417</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066952</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186021</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833793</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198195</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292712</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707462</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644733</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769961</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>358.6204002198274</v>
+        <v>423.1432842295773</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370472</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455616</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603577</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183357</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730594</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>307.2579104890252</v>
+        <v>222.3958714428157</v>
       </c>
       <c r="R9" t="n">
-        <v>15.19644325443778</v>
+        <v>13.85280893410651</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454751</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752352</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155967</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861895</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849972</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O10" t="n">
-        <v>244.747812037184</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112217</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134151</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36217,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36457,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36697,7 +36697,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410443</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L33" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37393,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37405,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37639,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37861,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,10 +37876,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38113,7 +38113,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1500000/Output_22_30.xlsx
+++ b/Outputs/1. Budget/Output Files/1500000/Output_22_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2261833.685885514</v>
+        <v>2258082.328481205</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12464781.8679769</v>
+        <v>12463925.44488782</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9548623.248201588</v>
+        <v>9548792.269784356</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663202</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663202</v>
+        <v>175.6809662669678</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368126</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>153.8072380324135</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>60.09988737406896</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>105.6268218842455</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845744</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>90.73780352948904</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>20.90758896841836</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>338.7290878155745</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>88.31160113061399</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246134</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>33.19510370079033</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>15.191068687556</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>210.1779408230891</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>89.67868986072659</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>173.0138837918216</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>97.56214753809401</v>
+        <v>11.83028812346049</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>48.95110471102655</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>92.83360621149697</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>137.1730436088542</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>136.486235818726</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.5831467345228</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>153.5277726151046</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181941</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>160.9888698962426</v>
+        <v>163.3760574240846</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>13.37642554686322</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.295034370323</v>
       </c>
       <c r="H19" t="n">
-        <v>26.13627195705825</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>116.287325111933</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>13.37642554686322</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>142.3575218158227</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>73.23997380652447</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>28.54004930889258</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>80.10107535865899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>81.11398998229679</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>103.8784673763403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>99.17988875728673</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393.8416170062758</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="C2" t="n">
-        <v>393.8416170062758</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="D2" t="n">
-        <v>393.8416170062758</v>
+        <v>388.8228542207792</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062758</v>
+        <v>199.4030692042947</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897907</v>
+        <v>192.4575684550912</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985592</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201482</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201482</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201482</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036631</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="V2" t="n">
-        <v>393.8416170062758</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="W2" t="n">
-        <v>393.8416170062758</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="X2" t="n">
-        <v>393.8416170062758</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="Y2" t="n">
-        <v>393.8416170062758</v>
+        <v>578.2426392372637</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>409.3994882033921</v>
+        <v>448.0101957852227</v>
       </c>
       <c r="C3" t="n">
-        <v>234.9464589222651</v>
+        <v>448.0101957852227</v>
       </c>
       <c r="D3" t="n">
-        <v>234.9464589222651</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="E3" t="n">
-        <v>75.70900391680962</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>75.70900391680962</v>
+        <v>152.5412281508564</v>
       </c>
       <c r="G3" t="n">
-        <v>75.70900391680962</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652808</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198772</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="T3" t="n">
-        <v>409.3994882033921</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="U3" t="n">
-        <v>409.3994882033921</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="V3" t="n">
-        <v>409.3994882033921</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="W3" t="n">
-        <v>409.3994882033921</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="X3" t="n">
-        <v>409.3994882033921</v>
+        <v>616.2255328052908</v>
       </c>
       <c r="Y3" t="n">
-        <v>409.3994882033921</v>
+        <v>616.2255328052908</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>465.6513659686595</v>
+        <v>165.1186863856413</v>
       </c>
       <c r="C4" t="n">
-        <v>465.6513659686595</v>
+        <v>165.1186863856413</v>
       </c>
       <c r="D4" t="n">
-        <v>465.6513659686595</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>465.6513659686595</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>465.6513659686595</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>296.9625425315745</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349387</v>
+        <v>187.8896250884405</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295957</v>
+        <v>373.539956383097</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242527</v>
+        <v>559.1902876777534</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608029</v>
+        <v>721.9284911143035</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846285</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846285</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="S4" t="n">
-        <v>655.0711509851446</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="T4" t="n">
-        <v>465.6513659686595</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="U4" t="n">
-        <v>465.6513659686595</v>
+        <v>725.60672124885</v>
       </c>
       <c r="V4" t="n">
-        <v>465.6513659686595</v>
+        <v>725.60672124885</v>
       </c>
       <c r="W4" t="n">
-        <v>465.6513659686595</v>
+        <v>725.60672124885</v>
       </c>
       <c r="X4" t="n">
-        <v>465.6513659686595</v>
+        <v>536.1869362323655</v>
       </c>
       <c r="Y4" t="n">
-        <v>465.6513659686595</v>
+        <v>346.767151215881</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>861.9600062922736</v>
+        <v>395.2371628325889</v>
       </c>
       <c r="C5" t="n">
-        <v>861.9600062922736</v>
+        <v>53.08656907948338</v>
       </c>
       <c r="D5" t="n">
-        <v>861.9600062922736</v>
+        <v>53.08656907948338</v>
       </c>
       <c r="E5" t="n">
-        <v>861.9600062922736</v>
+        <v>53.08656907948338</v>
       </c>
       <c r="F5" t="n">
-        <v>450.974101502666</v>
+        <v>46.14106833027991</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675756</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675756</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675756</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017212</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746964</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030741</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709148</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582748</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079235</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332752</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837878</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837878</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1638.699178332207</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="T5" t="n">
-        <v>1638.699178332207</v>
+        <v>1332.709567064687</v>
       </c>
       <c r="U5" t="n">
-        <v>1638.699178332207</v>
+        <v>1079.068705446274</v>
       </c>
       <c r="V5" t="n">
-        <v>1638.699178332207</v>
+        <v>748.0058181027031</v>
       </c>
       <c r="W5" t="n">
-        <v>1638.699178332207</v>
+        <v>395.2371628325889</v>
       </c>
       <c r="X5" t="n">
-        <v>1638.699178332207</v>
+        <v>395.2371628325889</v>
       </c>
       <c r="Y5" t="n">
-        <v>1248.559846356395</v>
+        <v>395.2371628325889</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.7747295209705</v>
+        <v>454.7486208726792</v>
       </c>
       <c r="C6" t="n">
-        <v>757.3217002398435</v>
+        <v>280.2955915915522</v>
       </c>
       <c r="D6" t="n">
-        <v>608.3872905785922</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1498355731367</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6152776000216</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5332907139815</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="H6" t="n">
-        <v>68.08846409533365</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675756</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>186.4980096348797</v>
+        <v>183.8748628766941</v>
       </c>
       <c r="K6" t="n">
-        <v>310.9878489676102</v>
+        <v>451.1842149794078</v>
       </c>
       <c r="L6" t="n">
-        <v>524.7023421060012</v>
+        <v>660.7750882322384</v>
       </c>
       <c r="M6" t="n">
-        <v>793.4539435093527</v>
+        <v>924.7146197277258</v>
       </c>
       <c r="N6" t="n">
-        <v>1083.72724502225</v>
+        <v>1210.048490161058</v>
       </c>
       <c r="O6" t="n">
-        <v>1327.05081121532</v>
+        <v>1448.853441912517</v>
       </c>
       <c r="P6" t="n">
-        <v>1503.006358626509</v>
+        <v>1621.182402866226</v>
       </c>
       <c r="Q6" t="n">
-        <v>1726.723662962411</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R6" t="n">
-        <v>1727.902815837878</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1727.902815837878</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1727.902815837878</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="U6" t="n">
-        <v>1727.902815837878</v>
+        <v>1527.965221823178</v>
       </c>
       <c r="V6" t="n">
-        <v>1727.902815837878</v>
+        <v>1292.813113591435</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.601865511525</v>
+        <v>1038.575756863234</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.750365305992</v>
+        <v>830.7242566577011</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.990066541038</v>
+        <v>622.9639578927472</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>816.7194468385378</v>
+        <v>647.5850744831047</v>
       </c>
       <c r="C7" t="n">
-        <v>647.7832639106309</v>
+        <v>478.6488915551978</v>
       </c>
       <c r="D7" t="n">
-        <v>497.6666244982952</v>
+        <v>328.532252142862</v>
       </c>
       <c r="E7" t="n">
-        <v>349.753530915902</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="F7" t="n">
-        <v>202.8635834179917</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675756</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675756</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675756</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J7" t="n">
-        <v>37.9184154251434</v>
+        <v>35.96388306992288</v>
       </c>
       <c r="K7" t="n">
-        <v>173.2773544153384</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L7" t="n">
-        <v>402.0166284741415</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M7" t="n">
-        <v>653.5792444508779</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N7" t="n">
-        <v>904.5948801116342</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O7" t="n">
-        <v>1120.432152187793</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P7" t="n">
-        <v>1281.597543261022</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q7" t="n">
-        <v>1309.745026025163</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1309.745026025163</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>1309.745026025163</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>1309.745026025163</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>1309.745026025163</v>
+        <v>1003.995038092962</v>
       </c>
       <c r="V7" t="n">
-        <v>1309.745026025163</v>
+        <v>1003.995038092962</v>
       </c>
       <c r="W7" t="n">
-        <v>1309.745026025163</v>
+        <v>1003.995038092962</v>
       </c>
       <c r="X7" t="n">
-        <v>1219.160490812308</v>
+        <v>1003.995038092962</v>
       </c>
       <c r="Y7" t="n">
-        <v>998.3679116687775</v>
+        <v>829.2335393133444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1296.956676308548</v>
+        <v>467.2912373005195</v>
       </c>
       <c r="C8" t="n">
-        <v>1296.956676308548</v>
+        <v>467.2912373005195</v>
       </c>
       <c r="D8" t="n">
-        <v>938.6909777017975</v>
+        <v>467.2912373005195</v>
       </c>
       <c r="E8" t="n">
-        <v>552.9027251035532</v>
+        <v>467.2912373005195</v>
       </c>
       <c r="F8" t="n">
-        <v>141.9168203139456</v>
+        <v>56.30533251091189</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>44.35554652761846</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>44.35554652761846</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>44.35554652761846</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>156.8927045872715</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>376.2952505159014</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>685.3852714985303</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1060.976912556947</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1447.259827415493</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1798.680568975116</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2064.109040631095</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2215.262022208135</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2217.777326380923</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.331766066755</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.331766066755</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642784</v>
+        <v>1914.727870151096</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.325171642784</v>
+        <v>1583.664982807525</v>
       </c>
       <c r="W8" t="n">
-        <v>1683.55651637267</v>
+        <v>1230.896327537411</v>
       </c>
       <c r="X8" t="n">
-        <v>1683.55651637267</v>
+        <v>857.4305692763312</v>
       </c>
       <c r="Y8" t="n">
-        <v>1683.55651637267</v>
+        <v>467.2912373005195</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>701.68199108318</v>
+        <v>673.5149984485672</v>
       </c>
       <c r="C9" t="n">
-        <v>701.68199108318</v>
+        <v>499.0619691674402</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9106716776275</v>
+        <v>350.127559506189</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6732166721721</v>
+        <v>190.8901045007335</v>
       </c>
       <c r="F9" t="n">
-        <v>302.138658699057</v>
+        <v>44.35554652761846</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2626649141729</v>
+        <v>44.35554652761846</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300612</v>
+        <v>44.35554652761846</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>44.35554652761846</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>92.5640599542413</v>
       </c>
       <c r="K9" t="n">
-        <v>508.4654164929048</v>
+        <v>355.3411088987201</v>
       </c>
       <c r="L9" t="n">
-        <v>766.0165520528924</v>
+        <v>617.5440847283973</v>
       </c>
       <c r="M9" t="n">
-        <v>1085.923447521402</v>
+        <v>942.8794583785038</v>
       </c>
       <c r="N9" t="n">
-        <v>1428.705971516033</v>
+        <v>1291.234136219259</v>
       </c>
       <c r="O9" t="n">
-        <v>1720.065217770599</v>
+        <v>1587.690814634411</v>
       </c>
       <c r="P9" t="n">
-        <v>1934.5736333315</v>
+        <v>2121.568509855279</v>
       </c>
       <c r="Q9" t="n">
-        <v>2154.745546059887</v>
+        <v>2217.777326380923</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>2217.777326380923</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406371</v>
+        <v>2079.218696472989</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880347</v>
+        <v>1884.596484064446</v>
       </c>
       <c r="U9" t="n">
-        <v>1606.683255013611</v>
+        <v>1746.731599399066</v>
       </c>
       <c r="V9" t="n">
-        <v>1371.531146781868</v>
+        <v>1511.579491167324</v>
       </c>
       <c r="W9" t="n">
-        <v>1117.293790053667</v>
+        <v>1257.342134439122</v>
       </c>
       <c r="X9" t="n">
-        <v>909.4422898481339</v>
+        <v>1049.490634233589</v>
       </c>
       <c r="Y9" t="n">
-        <v>701.68199108318</v>
+        <v>841.7303354686353</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>658.2114099481646</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>489.2752270202577</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>339.158587607922</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>191.2454940255288</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>44.35554652761846</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>44.35554652761846</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>44.35554652761846</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>44.35554652761846</v>
       </c>
       <c r="J10" t="n">
-        <v>58.6963092017423</v>
+        <v>60.95254262692066</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>218.0633423274037</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>474.6375091918448</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>755.5481168921726</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>1035.21391462932</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>1277.514248546133</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>1461.323360659242</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>1505.148182155971</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693647</v>
+        <v>1505.148182155971</v>
       </c>
       <c r="S10" t="n">
-        <v>1328.190584012311</v>
+        <v>1505.148182155971</v>
       </c>
       <c r="T10" t="n">
-        <v>1104.586726704934</v>
+        <v>1505.148182155971</v>
       </c>
       <c r="U10" t="n">
-        <v>815.4604056789578</v>
+        <v>1505.148182155971</v>
       </c>
       <c r="V10" t="n">
-        <v>560.775917473071</v>
+        <v>1350.069623958895</v>
       </c>
       <c r="W10" t="n">
-        <v>271.3587474361104</v>
+        <v>1060.652453921934</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>1060.652453921934</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>839.8598747784043</v>
       </c>
     </row>
     <row r="11">
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5050,40 +5050,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1814.846060413294</v>
+        <v>1812.43475988012</v>
       </c>
       <c r="V13" t="n">
-        <v>1560.161572207407</v>
+        <v>1557.750271674233</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207407</v>
+        <v>1268.333101637273</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>1040.343550739255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>819.5509715957253</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>634.334587849125</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>336.3048548543961</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>189.4149073564858</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>189.4149073564858</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5682,43 +5682,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.987318831765</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1618.570148794804</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6317,16 +6317,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6457,25 +6457,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D31" t="n">
-        <v>484.2179484367892</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>336.3048548543961</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>189.4149073564858</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782912</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2123.082773965825</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.9786782557277</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C37" t="n">
-        <v>559.0424953278208</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>518.8177458183337</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>371.9277983204233</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>204.7316990353033</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.419722229497</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.6271430859674</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>489.8360330454435</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>408.925855915485</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
         <v>261.0127623330919</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7648,22 +7648,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>417.7969033733013</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>417.7969033733013</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
-        <v>74.03418926528973</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711118</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777582</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425943</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>147.3598584166009</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>157.5907849180415</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>103.2587840751625</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>127.9776909938866</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>30.32522655688288</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>125.1956044930016</v>
+        <v>122.8084169651596</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>126.9182872993607</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194582</v>
       </c>
       <c r="H19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>152.1477127454056</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>143.8269525734214</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>144.1654765207638</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>65.31997266427238</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>63.36835372228754</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>66.34424953498211</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>843421.893476377</v>
+        <v>843281.9100844633</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>844910.0039391703</v>
+        <v>845238.4004106822</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.366920277</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.366920277</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.327398212</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253102</v>
+        <v>259123.8056778333</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231946</v>
+        <v>138712.7919296926</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>589678.7921745732</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881929</v>
+        <v>60247.15959153567</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.2536219753</v>
+        <v>33617.87336484354</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>154073.8510167269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278215.8274662499</v>
+        <v>278150.9659717602</v>
       </c>
       <c r="C4" t="n">
-        <v>206275.6443517567</v>
+        <v>209227.5502340213</v>
       </c>
       <c r="D4" t="n">
-        <v>173896.8884867641</v>
+        <v>170356.843115353</v>
       </c>
       <c r="E4" t="n">
-        <v>14257.49849731383</v>
+        <v>14200.84623082222</v>
       </c>
       <c r="F4" t="n">
-        <v>14257.49849731383</v>
+        <v>14200.84623082223</v>
       </c>
       <c r="G4" t="n">
-        <v>14257.49849731383</v>
+        <v>14200.84623082222</v>
       </c>
       <c r="H4" t="n">
-        <v>14257.49849731383</v>
+        <v>14200.84623082233</v>
       </c>
       <c r="I4" t="n">
-        <v>14257.49849731383</v>
+        <v>14200.84623082227</v>
       </c>
       <c r="J4" t="n">
-        <v>14257.49849731383</v>
+        <v>14200.84623082227</v>
       </c>
       <c r="K4" t="n">
-        <v>14257.49849731383</v>
+        <v>14200.84623082227</v>
       </c>
       <c r="L4" t="n">
-        <v>14257.49849731383</v>
+        <v>14200.84623082227</v>
       </c>
       <c r="M4" t="n">
-        <v>14257.49849731383</v>
+        <v>14200.84623082227</v>
       </c>
       <c r="N4" t="n">
-        <v>14257.49849731383</v>
+        <v>14200.84623082227</v>
       </c>
       <c r="O4" t="n">
-        <v>14257.49849731383</v>
+        <v>14200.84623082227</v>
       </c>
       <c r="P4" t="n">
-        <v>14257.49849731383</v>
+        <v>14200.84623082227</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936805</v>
+        <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>86168.04029969325</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-310777.2030004968</v>
+        <v>-310712.3415060065</v>
       </c>
       <c r="C6" t="n">
-        <v>62477.58630177751</v>
+        <v>71818.5862271651</v>
       </c>
       <c r="D6" t="n">
-        <v>241275.3030323816</v>
+        <v>220543.652053474</v>
       </c>
       <c r="E6" t="n">
-        <v>-111463.2861279814</v>
+        <v>-99989.59771615485</v>
       </c>
       <c r="F6" t="n">
-        <v>489979.9214462835</v>
+        <v>489689.1944584179</v>
       </c>
       <c r="G6" t="n">
-        <v>489979.9214462834</v>
+        <v>489689.1944584181</v>
       </c>
       <c r="H6" t="n">
-        <v>489979.9214462835</v>
+        <v>489689.1944584177</v>
       </c>
       <c r="I6" t="n">
-        <v>489979.9214462835</v>
+        <v>489689.1944584178</v>
       </c>
       <c r="J6" t="n">
-        <v>440914.976717739</v>
+        <v>440624.2497298732</v>
       </c>
       <c r="K6" t="n">
-        <v>427066.283787464</v>
+        <v>429442.0348668823</v>
       </c>
       <c r="L6" t="n">
-        <v>462104.667824308</v>
+        <v>456071.3210935742</v>
       </c>
       <c r="M6" t="n">
-        <v>332833.5408946853</v>
+        <v>335615.3434416912</v>
       </c>
       <c r="N6" t="n">
-        <v>489979.9214462834</v>
+        <v>489689.1944584179</v>
       </c>
       <c r="O6" t="n">
-        <v>489979.9214462835</v>
+        <v>489689.1944584178</v>
       </c>
       <c r="P6" t="n">
-        <v>489979.9214462835</v>
+        <v>489689.1944584178</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950602</v>
+        <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>863.7717861790469</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594695</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>554.4443315952308</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821553</v>
+        <v>201.5110155847058</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262392</v>
+        <v>113.7908296814369</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>504.2037141626271</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931492</v>
+        <v>234.0895511156621</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666938</v>
+        <v>132.8291933132489</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>618.2639565044178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931494</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666938</v>
+        <v>132.8291933132492</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>618.2639565044176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931492</v>
+        <v>234.0895511156621</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666938</v>
+        <v>132.8291933132489</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>618.2639565044178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543633</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753912</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637378</v>
+        <v>237.4168669630903</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871012</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>173.9450204377214</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>40.74186997667073</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714232</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681025</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>100.146163319232</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553079</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>116.0424522660072</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632377989</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>265.3574925250319</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271751</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577515</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>26.54380395543308</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760063</v>
+        <v>94.24014755885167</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>51.18716070664165</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833735</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>210.6441840127824</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>41.51704233783047</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599131</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0309655283106</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>45.57076956027319</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>314.3085873055328</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>76.60428439787239</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>80.94052436243473</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>54.61145935314178</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29180769719211</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155169</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>89.33291440571406</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>108.608555768565</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>107.2570757305865</v>
       </c>
       <c r="S10" t="n">
-        <v>40.60454402509308</v>
+        <v>196.8715076418045</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>98.60987070872338</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28754,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-2.475613270440144e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-3.241697906780928e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085667</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429359</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286698</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520262</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511768</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M5" t="n">
-        <v>535.703053396809</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610687</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191481</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860956</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634651</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098727</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489897</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920251</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868533</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030884</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403512</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062475</v>
+        <v>55.54104253307773</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475933</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316626</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721883</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658078</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468659</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374446</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872485</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547494</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632158</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947715</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378869</v>
+        <v>6.502193386993428</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757161</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236994</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734524</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635545</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260798</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162527</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399134</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528485</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275344</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514996</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054699</v>
+        <v>60.80993132519963</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391196</v>
+        <v>23.56907366567078</v>
       </c>
       <c r="T7" t="n">
-        <v>5.84725943883079</v>
+        <v>5.778541795965189</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656338</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.472449391674558</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.56222233248707</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>133.8716051725335</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>294.7198015566387</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>441.7085843062229</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>547.9785573766833</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>609.7317292458756</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>619.597826079971</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>585.0686574415071</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>499.3425630845414</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>374.9854692451962</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>218.1262490997771</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>79.12844051278407</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.20064721205538</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2777959513339646</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.857924219328516</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.94363653930435</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.96800491986339</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>175.5330947743665</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>300.0140174693771</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>403.4058705169219</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>470.7556234675805</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>483.2151240436916</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>442.0474347627807</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>354.7820379873901</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>237.162396839198</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>115.3542774070811</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.5101274949836</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.488738410363621</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1222318565347708</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.557621253765494</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.84866896529686</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.84191915869324</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>110.1238226412204</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>180.9672693011183</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>231.5757998552809</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>244.1642116243492</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>238.3585324057689</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>220.1626841231447</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>188.3872105463284</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>130.4295397130361</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>70.03631564658302</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>27.14509039516774</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.655290811543473</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08496115929629978</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>414.644818552487</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>86.19340501175058</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732831</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>28.45844197068189</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198354</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070457</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811896</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695363</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644778</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974613</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308261</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890156</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>153.4747003213355</v>
+        <v>151.6622745597329</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573036</v>
+        <v>270.0094465683977</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923141</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437895</v>
+        <v>266.6055873691791</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635326</v>
+        <v>288.2160307407401</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930002</v>
+        <v>241.2171229812711</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729182</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>225.9770750867693</v>
+        <v>65.93752551686947</v>
       </c>
       <c r="R6" t="n">
-        <v>1.19106351057269</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.394302129682671</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K7" t="n">
-        <v>136.7262010001969</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L7" t="n">
-        <v>231.0497717765689</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M7" t="n">
-        <v>254.103652501754</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N7" t="n">
-        <v>253.5511471320771</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O7" t="n">
-        <v>218.0174465415741</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P7" t="n">
-        <v>162.7933243163931</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.4318007718597</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>113.6738970299525</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>221.6187332612423</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>312.212142406696</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>379.3854960186029</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>390.1847624833801</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>354.9704460198203</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>268.1095673292718</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>152.6797793707467</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.540711285645017</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>48.69546810769984</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1432842295773</v>
+        <v>265.4313625701806</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>264.8514907370477</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>328.6215895455622</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>351.8734119603582</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>299.4511903183363</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>539.2703992129971</v>
       </c>
       <c r="Q9" t="n">
-        <v>222.3958714428157</v>
+        <v>97.18062275317644</v>
       </c>
       <c r="R9" t="n">
-        <v>13.85280893410651</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>16.76464252454767</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>158.6977774752354</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>259.165825115597</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>283.7480885861898</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>282.4907047849975</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>244.7478120371843</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>185.6657698112219</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>44.26749646134168</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36050,7 +36050,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010414</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294884</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1500000/Output_22_30.xlsx
+++ b/Outputs/1. Budget/Output Files/1500000/Output_22_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2258082.328481205</v>
+        <v>2259842.858783991</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9548792.269784356</v>
+        <v>9548792.269784357</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>175.6809662669678</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368145</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>133.833359060644</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714242</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>105.6268218842455</v>
+        <v>65.54630028256615</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845843</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>54.30560650378752</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>20.90758896841836</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>338.7290878155745</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -983,16 +983,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>15.191068687556</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>183.652323451407</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1.730273352847635</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.0138837918216</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83028812346049</v>
+        <v>11.83028812346051</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>48.95110471102655</v>
+        <v>129.8916290734617</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>187.3934909305659</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.2918076971922</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088542</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>146.2243117903852</v>
       </c>
       <c r="U9" t="n">
-        <v>136.486235818726</v>
+        <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>46.81117731420072</v>
       </c>
       <c r="V10" t="n">
-        <v>153.5277726151046</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,19 +1372,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187882</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.831980181941</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>163.3760574240846</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>55.40976022256997</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>28.75188085812055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>176.5196562849199</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.295034370323</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>104.7777418077836</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576179</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695618</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>142.3575218158227</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>2.813978415465053</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>28.54004930889258</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>115.4764219077138</v>
+        <v>109.8058856274627</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>578.2426392372637</v>
+        <v>603.4370373477802</v>
       </c>
       <c r="C2" t="n">
-        <v>578.2426392372637</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="D2" t="n">
-        <v>388.8228542207792</v>
+        <v>224.5974673148103</v>
       </c>
       <c r="E2" t="n">
-        <v>199.4030692042947</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>192.4575684550912</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985576</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201457</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372637</v>
+        <v>603.4370373477802</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372637</v>
+        <v>603.4370373477802</v>
       </c>
       <c r="U2" t="n">
-        <v>578.2426392372637</v>
+        <v>603.4370373477802</v>
       </c>
       <c r="V2" t="n">
-        <v>578.2426392372637</v>
+        <v>603.4370373477802</v>
       </c>
       <c r="W2" t="n">
-        <v>578.2426392372637</v>
+        <v>603.4370373477802</v>
       </c>
       <c r="X2" t="n">
-        <v>578.2426392372637</v>
+        <v>603.4370373477802</v>
       </c>
       <c r="Y2" t="n">
-        <v>578.2426392372637</v>
+        <v>603.4370373477802</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>448.0101957852227</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="C3" t="n">
-        <v>448.0101957852227</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="D3" t="n">
         <v>299.0757861239715</v>
@@ -4397,64 +4397,64 @@
         <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508564</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024199</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140239</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546594</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476339</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843266</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843266</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843266</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843266</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843266</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843266</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="X3" t="n">
-        <v>616.2255328052908</v>
+        <v>656.7109081605245</v>
       </c>
       <c r="Y3" t="n">
-        <v>616.2255328052908</v>
+        <v>467.2911231440395</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.1186863856413</v>
+        <v>313.0317799680345</v>
       </c>
       <c r="C4" t="n">
-        <v>165.1186863856413</v>
+        <v>313.0317799680345</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330557</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884405</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>373.539956383097</v>
+        <v>448.2056470819963</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777534</v>
+        <v>471.6341805242525</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143035</v>
+        <v>634.3723839608027</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846261</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846261</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846261</v>
+        <v>691.8713500010044</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846261</v>
+        <v>691.8713500010044</v>
       </c>
       <c r="U4" t="n">
-        <v>725.60672124885</v>
+        <v>691.8713500010044</v>
       </c>
       <c r="V4" t="n">
-        <v>725.60672124885</v>
+        <v>691.8713500010044</v>
       </c>
       <c r="W4" t="n">
-        <v>725.60672124885</v>
+        <v>691.8713500010044</v>
       </c>
       <c r="X4" t="n">
-        <v>536.1869362323655</v>
+        <v>502.4515649845195</v>
       </c>
       <c r="Y4" t="n">
-        <v>346.767151215881</v>
+        <v>313.0317799680345</v>
       </c>
     </row>
     <row r="5">
@@ -4546,10 +4546,10 @@
         <v>395.2371628325889</v>
       </c>
       <c r="C5" t="n">
-        <v>53.08656907948338</v>
+        <v>395.2371628325889</v>
       </c>
       <c r="D5" t="n">
-        <v>53.08656907948338</v>
+        <v>395.2371628325889</v>
       </c>
       <c r="E5" t="n">
         <v>53.08656907948338</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>454.7486208726792</v>
+        <v>662.8886629835073</v>
       </c>
       <c r="C6" t="n">
-        <v>280.2955915915522</v>
+        <v>488.4356337023803</v>
       </c>
       <c r="D6" t="n">
-        <v>131.3611819303009</v>
+        <v>339.501224041129</v>
       </c>
       <c r="E6" t="n">
-        <v>131.3611819303009</v>
+        <v>180.2637690356736</v>
       </c>
       <c r="F6" t="n">
-        <v>131.3611819303009</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G6" t="n">
-        <v>131.3611819303009</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
         <v>33.72921106255854</v>
@@ -4646,25 +4646,25 @@
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>183.8748628766941</v>
+        <v>121.7846078506384</v>
       </c>
       <c r="K6" t="n">
-        <v>451.1842149794078</v>
+        <v>243.2077001209172</v>
       </c>
       <c r="L6" t="n">
-        <v>660.7750882322384</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>924.7146197277258</v>
+        <v>716.7381048692351</v>
       </c>
       <c r="N6" t="n">
-        <v>1210.048490161058</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1448.853441912517</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1621.182402866226</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1543.309735648992</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1543.309735648992</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U6" t="n">
-        <v>1527.965221823178</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V6" t="n">
-        <v>1292.813113591435</v>
+        <v>1500.953155702264</v>
       </c>
       <c r="W6" t="n">
-        <v>1038.575756863234</v>
+        <v>1246.715798974062</v>
       </c>
       <c r="X6" t="n">
-        <v>830.7242566577011</v>
+        <v>1038.864298768529</v>
       </c>
       <c r="Y6" t="n">
-        <v>622.9639578927472</v>
+        <v>831.1040000035753</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.5850744831047</v>
+        <v>817.654597751443</v>
       </c>
       <c r="C7" t="n">
-        <v>478.6488915551978</v>
+        <v>648.7184148235361</v>
       </c>
       <c r="D7" t="n">
-        <v>328.532252142862</v>
+        <v>498.6017754112004</v>
       </c>
       <c r="E7" t="n">
-        <v>180.6191585604689</v>
+        <v>350.6886818288073</v>
       </c>
       <c r="F7" t="n">
-        <v>33.72921106255854</v>
+        <v>203.7987343308969</v>
       </c>
       <c r="G7" t="n">
-        <v>33.72921106255854</v>
+        <v>35.4769619240208</v>
       </c>
       <c r="H7" t="n">
         <v>33.72921106255854</v>
@@ -4758,19 +4758,19 @@
         <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>1003.995038092962</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>1003.995038092962</v>
+        <v>1038.447176894973</v>
       </c>
       <c r="W7" t="n">
-        <v>1003.995038092962</v>
+        <v>1038.447176894973</v>
       </c>
       <c r="X7" t="n">
-        <v>1003.995038092962</v>
+        <v>1038.447176894973</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.2335393133444</v>
+        <v>817.654597751443</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>467.2912373005195</v>
+        <v>63.25083326011496</v>
       </c>
       <c r="C8" t="n">
-        <v>467.2912373005195</v>
+        <v>63.25083326011496</v>
       </c>
       <c r="D8" t="n">
-        <v>467.2912373005195</v>
+        <v>63.25083326011496</v>
       </c>
       <c r="E8" t="n">
-        <v>467.2912373005195</v>
+        <v>63.25083326011496</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091189</v>
+        <v>56.30533251091148</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761846</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761846</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761846</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872715</v>
+        <v>156.8927045872695</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505159014</v>
+        <v>376.2952505158974</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985303</v>
+        <v>685.3852714985237</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556947</v>
+        <v>1060.976912556938</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415493</v>
+        <v>1447.259827415481</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975116</v>
+        <v>1798.6805689751</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631095</v>
+        <v>2064.109040631077</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208135</v>
+        <v>2215.262022208114</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380923</v>
+        <v>2217.777326380902</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.331766066755</v>
+        <v>2086.573660650132</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.331766066755</v>
+        <v>2086.573660650132</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.727870151096</v>
+        <v>1897.287306174813</v>
       </c>
       <c r="V8" t="n">
-        <v>1583.664982807525</v>
+        <v>1566.224418831242</v>
       </c>
       <c r="W8" t="n">
-        <v>1230.896327537411</v>
+        <v>1213.455763561128</v>
       </c>
       <c r="X8" t="n">
-        <v>857.4305692763312</v>
+        <v>839.9900053000486</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.2912373005195</v>
+        <v>449.8506733242368</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>673.5149984485672</v>
+        <v>768.759248647751</v>
       </c>
       <c r="C9" t="n">
-        <v>499.0619691674402</v>
+        <v>594.306219366624</v>
       </c>
       <c r="D9" t="n">
-        <v>350.127559506189</v>
+        <v>445.3718097053726</v>
       </c>
       <c r="E9" t="n">
-        <v>190.8901045007335</v>
+        <v>286.1343546999171</v>
       </c>
       <c r="F9" t="n">
-        <v>44.35554652761846</v>
+        <v>139.5997967268021</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35554652761846</v>
+        <v>139.5997967268021</v>
       </c>
       <c r="H9" t="n">
-        <v>44.35554652761846</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761846</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="J9" t="n">
-        <v>92.5640599542413</v>
+        <v>217.3941849412448</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3411088987201</v>
+        <v>462.6427349937579</v>
       </c>
       <c r="L9" t="n">
-        <v>617.5440847283973</v>
+        <v>724.8457108234331</v>
       </c>
       <c r="M9" t="n">
-        <v>942.8794583785038</v>
+        <v>1050.181084473537</v>
       </c>
       <c r="N9" t="n">
-        <v>1291.234136219259</v>
+        <v>1398.53576231429</v>
       </c>
       <c r="O9" t="n">
-        <v>1587.690814634411</v>
+        <v>1694.99244072944</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.568509855279</v>
+        <v>1913.591994996768</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380923</v>
+        <v>2217.777326380902</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380923</v>
+        <v>2217.777326380902</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472989</v>
+        <v>2217.777326380902</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064446</v>
+        <v>2070.076001340109</v>
       </c>
       <c r="U9" t="n">
-        <v>1746.731599399066</v>
+        <v>1841.97584959825</v>
       </c>
       <c r="V9" t="n">
-        <v>1511.579491167324</v>
+        <v>1606.823741366507</v>
       </c>
       <c r="W9" t="n">
-        <v>1257.342134439122</v>
+        <v>1352.586384638306</v>
       </c>
       <c r="X9" t="n">
-        <v>1049.490634233589</v>
+        <v>1144.734884432773</v>
       </c>
       <c r="Y9" t="n">
-        <v>841.7303354686353</v>
+        <v>936.9745856678189</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>658.2114099481646</v>
+        <v>511.3214624502538</v>
       </c>
       <c r="C10" t="n">
-        <v>489.2752270202577</v>
+        <v>342.3852795223469</v>
       </c>
       <c r="D10" t="n">
-        <v>339.158587607922</v>
+        <v>192.2686401100111</v>
       </c>
       <c r="E10" t="n">
-        <v>191.2454940255288</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761846</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761846</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761846</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761846</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692066</v>
+        <v>60.95254262691968</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274037</v>
+        <v>218.0633423274019</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918448</v>
+        <v>474.6375091918418</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921726</v>
+        <v>755.5481168921685</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.21391462932</v>
+        <v>1035.213914629315</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546133</v>
+        <v>1277.514248546126</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659242</v>
+        <v>1461.323360659235</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155971</v>
+        <v>1505.148182155963</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155971</v>
+        <v>1505.148182155963</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155971</v>
+        <v>1505.148182155963</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155971</v>
+        <v>1505.148182155963</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.148182155971</v>
+        <v>1457.864164666871</v>
       </c>
       <c r="V10" t="n">
-        <v>1350.069623958895</v>
+        <v>1203.179676460984</v>
       </c>
       <c r="W10" t="n">
-        <v>1060.652453921934</v>
+        <v>913.7625064240236</v>
       </c>
       <c r="X10" t="n">
-        <v>1060.652453921934</v>
+        <v>913.7625064240236</v>
       </c>
       <c r="Y10" t="n">
-        <v>839.8598747784043</v>
+        <v>692.9699272804935</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,19 +5038,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1812.43475988012</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1557.750271674233</v>
+        <v>1699.462102832031</v>
       </c>
       <c r="W13" t="n">
-        <v>1268.333101637273</v>
+        <v>1410.044932795071</v>
       </c>
       <c r="X13" t="n">
-        <v>1040.343550739255</v>
+        <v>1182.055381897053</v>
       </c>
       <c r="Y13" t="n">
-        <v>819.5509715957253</v>
+        <v>961.2628027535234</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,34 +5266,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5369,7 +5369,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782889</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038277</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797679</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910802</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279796</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603195</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947393</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741506</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400676</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121607</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121607</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121607</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121607</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854702</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648815</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611855</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138374</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703073</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6004,37 +6004,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,22 +6220,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6244,13 +6244,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,34 +6442,34 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,22 +6478,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511905</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782912</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038298</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1833.665603928865</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1578.981115722978</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1578.981115722978</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.99156482496</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6928,37 +6928,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,52 +7071,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>985.7836617409695</v>
+        <v>951.3929232910542</v>
       </c>
       <c r="C37" t="n">
-        <v>816.8474788130626</v>
+        <v>782.4567403631473</v>
       </c>
       <c r="D37" t="n">
-        <v>666.7308394007268</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>518.8177458183337</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>371.9277983204233</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>204.7316990353033</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
@@ -7128,19 +7128,19 @@
         <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>2160.315914855604</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1905.631426649717</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W37" t="n">
-        <v>1616.214256612757</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X37" t="n">
-        <v>1388.224705714739</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y37" t="n">
-        <v>1167.432126571209</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7587,34 +7587,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S43" t="n">
-        <v>2263.274529420831</v>
+        <v>2269.002343845332</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.673064443772</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,22 +7663,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7797,13 +7797,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457082</v>
+        <v>154.1946371899316</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711115</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777582</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>63.37360602116064</v>
       </c>
       <c r="K6" t="n">
-        <v>147.3598584166009</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>103.2587840751625</v>
+        <v>85.55322963883503</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688288</v>
+        <v>30.32522655688346</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>122.8084169651596</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>196.727883101258</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>110.0033420516711</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194582</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>147.3599015160444</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>143.8269525734214</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.8014946027473</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>65.54986409393081</v>
+        <v>71.22040037418189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>845238.4004106822</v>
+        <v>845238.400410682</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>820565.366920277</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.366920277</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>820565.366920277</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675041</v>
@@ -26340,19 +26340,19 @@
         <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675041</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778333</v>
+        <v>259123.8056778326</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296926</v>
+        <v>138712.7919296873</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745732</v>
+        <v>589678.7921745782</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854464</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153567</v>
+        <v>60247.15959153558</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484354</v>
+        <v>33617.8733648422</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167269</v>
+        <v>154073.8510167282</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278150.9659717602</v>
+        <v>278150.96597176</v>
       </c>
       <c r="C4" t="n">
         <v>209227.5502340213</v>
       </c>
       <c r="D4" t="n">
-        <v>170356.843115353</v>
+        <v>170356.8431153545</v>
       </c>
       <c r="E4" t="n">
-        <v>14200.84623082222</v>
+        <v>14200.84623082216</v>
       </c>
       <c r="F4" t="n">
+        <v>14200.84623082216</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14200.84623082226</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14200.84623082219</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14200.84623082218</v>
+      </c>
+      <c r="J4" t="n">
         <v>14200.84623082223</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14200.84623082222</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14200.84623082233</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14200.84623082227</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14200.84623082227</v>
       </c>
       <c r="K4" t="n">
         <v>14200.84623082227</v>
@@ -26456,10 +26456,10 @@
         <v>14200.84623082227</v>
       </c>
       <c r="O4" t="n">
-        <v>14200.84623082227</v>
+        <v>14200.84623082237</v>
       </c>
       <c r="P4" t="n">
-        <v>14200.84623082227</v>
+        <v>14200.84623082231</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969325</v>
+        <v>86168.04029969283</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-310712.3415060065</v>
       </c>
       <c r="C6" t="n">
-        <v>71818.5862271651</v>
+        <v>71818.58622716603</v>
       </c>
       <c r="D6" t="n">
-        <v>220543.652053474</v>
+        <v>220543.6520534781</v>
       </c>
       <c r="E6" t="n">
-        <v>-99989.59771615485</v>
+        <v>-99676.95638723881</v>
       </c>
       <c r="F6" t="n">
-        <v>489689.1944584179</v>
+        <v>490001.8357873393</v>
       </c>
       <c r="G6" t="n">
-        <v>489689.1944584181</v>
+        <v>490001.8357873393</v>
       </c>
       <c r="H6" t="n">
-        <v>489689.1944584177</v>
+        <v>490001.8357873391</v>
       </c>
       <c r="I6" t="n">
-        <v>489689.1944584178</v>
+        <v>490001.8357873391</v>
       </c>
       <c r="J6" t="n">
-        <v>440624.2497298732</v>
+        <v>440936.8910587943</v>
       </c>
       <c r="K6" t="n">
-        <v>429442.0348668823</v>
+        <v>429754.6761958034</v>
       </c>
       <c r="L6" t="n">
-        <v>456071.3210935742</v>
+        <v>456383.962422497</v>
       </c>
       <c r="M6" t="n">
-        <v>335615.3434416912</v>
+        <v>335927.9847706108</v>
       </c>
       <c r="N6" t="n">
-        <v>489689.1944584179</v>
+        <v>490001.8357873391</v>
       </c>
       <c r="O6" t="n">
-        <v>489689.1944584178</v>
+        <v>490001.8357873395</v>
       </c>
       <c r="P6" t="n">
-        <v>489689.1944584178</v>
+        <v>490001.8357873391</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.586891951416936e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790469</v>
+        <v>863.7717861790426</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952308</v>
+        <v>554.4443315952254</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,22 +26804,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847058</v>
+        <v>201.5110155847052</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814369</v>
+        <v>113.7908296814326</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626271</v>
+        <v>504.2037141626314</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156621</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132489</v>
+        <v>132.8291933132436</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044178</v>
+        <v>618.2639565044232</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156614</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132492</v>
+        <v>132.8291933132438</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044176</v>
+        <v>618.2639565044229</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156621</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132489</v>
+        <v>132.8291933132436</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044178</v>
+        <v>618.2639565044232</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046874</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543633</v>
+        <v>167.1574544543628</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059421</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>237.4168669630903</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>24.94245412940913</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27463,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.7788117555066</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>100.146163319232</v>
+        <v>140.2266849209113</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098424</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553089</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>152.4746492917087</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>265.3574925250319</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271751</v>
+        <v>38.18406822271703</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577515</v>
+        <v>31.05906618577467</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>26.54380395543308</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>43.20128225668731</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27703,16 +27703,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
         <v>33.85559031833735</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
         <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>210.6441840127824</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>49.1482636980183</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>148.4726143110729</v>
       </c>
       <c r="I7" t="n">
         <v>114.7793764994862</v>
@@ -27830,10 +27830,10 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.57076956027319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>303.9125797832803</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787239</v>
+        <v>76.60428439787307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>80.94052436243473</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>63.67436602593668</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27949,10 +27949,10 @@
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719211</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155169</v>
+        <v>25.42862793155201</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1730436088544</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>46.45167849407284</v>
       </c>
       <c r="U9" t="n">
-        <v>89.33291440571406</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421427</v>
+        <v>148.3785035421428</v>
       </c>
       <c r="I10" t="n">
-        <v>108.608555768565</v>
+        <v>108.6085557685653</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305865</v>
+        <v>107.2570757305868</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418045</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>221.2902986167381</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>239.4228908829938</v>
       </c>
       <c r="V10" t="n">
-        <v>98.60987070872338</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.429154524904838e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-6.234264775419677e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28754,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-2.475613270440144e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28803,13 +28803,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.672078567559044e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-3.241697906780928e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30659,7 +30659,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>4.67699903837477e-12</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30753,7 +30753,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674558</v>
+        <v>3.47244939167454</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248707</v>
+        <v>35.5622223324869</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725335</v>
+        <v>133.8716051725328</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566387</v>
+        <v>294.7198015566373</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062229</v>
+        <v>441.7085843062206</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766833</v>
+        <v>547.9785573766806</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458756</v>
+        <v>609.7317292458725</v>
       </c>
       <c r="N8" t="n">
-        <v>619.597826079971</v>
+        <v>619.5978260799679</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415071</v>
+        <v>585.0686574415042</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845414</v>
+        <v>499.3425630845389</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451962</v>
+        <v>374.9854692451943</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997771</v>
+        <v>218.126249099776</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278407</v>
+        <v>79.12844051278367</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205538</v>
+        <v>15.20064721205531</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339646</v>
+        <v>0.2777959513339632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328516</v>
+        <v>1.857924219328507</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930435</v>
+        <v>17.94363653930426</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986339</v>
+        <v>63.96800491986307</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743665</v>
+        <v>175.5330947743657</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693771</v>
+        <v>300.0140174693756</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169219</v>
+        <v>403.4058705169199</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675805</v>
+        <v>470.7556234675781</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436916</v>
+        <v>483.2151240436891</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627807</v>
+        <v>442.0474347627785</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873901</v>
+        <v>354.7820379873883</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.162396839198</v>
+        <v>237.1623968391968</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070811</v>
+        <v>115.3542774070805</v>
       </c>
       <c r="S9" t="n">
-        <v>34.5101274949836</v>
+        <v>34.51012749498342</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363621</v>
+        <v>7.488738410363584</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347708</v>
+        <v>0.1222318565347702</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765494</v>
+        <v>1.557621253765486</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529686</v>
+        <v>13.84866896529679</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869324</v>
+        <v>46.84191915869301</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412204</v>
+        <v>110.1238226412199</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011183</v>
+        <v>180.9672693011174</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552809</v>
+        <v>231.5757998552797</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243492</v>
+        <v>244.164211624348</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057689</v>
+        <v>238.3585324057677</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231447</v>
+        <v>220.1626841231436</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463284</v>
+        <v>188.3872105463275</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130361</v>
+        <v>130.4295397130354</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658302</v>
+        <v>70.03631564658268</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516774</v>
+        <v>27.1450903951676</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543473</v>
+        <v>6.65529081154344</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629978</v>
+        <v>0.08496115929629935</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,10 +31837,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>414.644818552487</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880151</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663196</v>
+        <v>170.3060203105432</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663196</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732829</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068189</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.6622745597329</v>
+        <v>88.94484524048471</v>
       </c>
       <c r="K6" t="n">
-        <v>270.0094465683977</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
         <v>211.707952780637</v>
@@ -35035,7 +35035,7 @@
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.93752551686947</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299525</v>
+        <v>113.673897029951</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612423</v>
+        <v>221.6187332612401</v>
       </c>
       <c r="L8" t="n">
-        <v>312.212142406696</v>
+        <v>312.2121424066933</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186029</v>
+        <v>379.3854960185998</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833801</v>
+        <v>390.184762483377</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198203</v>
+        <v>354.9704460198175</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292718</v>
+        <v>268.1095673292693</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707467</v>
+        <v>152.6797793707448</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285645017</v>
+        <v>2.540711285643908</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769984</v>
+        <v>174.7865034481078</v>
       </c>
       <c r="K9" t="n">
-        <v>265.4313625701806</v>
+        <v>247.7258081338516</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370477</v>
+        <v>264.8514907370457</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455622</v>
+        <v>328.6215895455598</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603582</v>
+        <v>351.8734119603558</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183363</v>
+        <v>299.4511903183341</v>
       </c>
       <c r="P9" t="n">
-        <v>539.2703992129971</v>
+        <v>220.8076305730581</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.18062275317644</v>
+        <v>307.2579104890244</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454767</v>
+        <v>16.76464252454711</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752354</v>
+        <v>158.6977774752345</v>
       </c>
       <c r="L10" t="n">
-        <v>259.165825115597</v>
+        <v>259.1658251155959</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861898</v>
+        <v>283.7480885861886</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849975</v>
+        <v>282.4907047849963</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371843</v>
+        <v>244.7478120371833</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112219</v>
+        <v>185.665769811221</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134168</v>
+        <v>44.26749646134105</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,19 +35497,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>272.5107846304687</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326294654</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010414</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326294884</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37955,7 +37955,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066296</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
